--- a/korea_week_split(1).xlsx
+++ b/korea_week_split(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\OneDrive\Desktop\kkyo\korea week QR code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD390F1-9DCF-493F-8E94-411D6F207D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB584F-0B00-4430-8038-B499C2471C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="2587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="2587">
   <si>
     <t>bot-field</t>
   </si>
@@ -7716,9 +7716,6 @@
     <t>rawen badraden</t>
   </si>
   <si>
-    <t>Mr. Fouad Aziz Zada</t>
-  </si>
-  <si>
     <t>FouadZada.ai@gmail.com</t>
   </si>
   <si>
@@ -7795,13 +7792,16 @@
   </si>
   <si>
     <t xml:space="preserve">slvar.abdulazeez@tiu.edu.iq </t>
+  </si>
+  <si>
+    <t>0750xxxxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7823,6 +7823,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -8194,8 +8200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A101" sqref="A2:XFD101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8926,9 +8932,6 @@
       <c r="C14">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>2560</v>
-      </c>
       <c r="E14" t="s">
         <v>246</v>
       </c>
@@ -13597,10 +13600,13 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>2561</v>
+        <v>2560</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2586</v>
       </c>
       <c r="F102" t="s">
         <v>347</v>
@@ -13608,45 +13614,108 @@
       <c r="G102" t="s">
         <v>375</v>
       </c>
+      <c r="H102" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D103" t="s">
-        <v>2568</v>
+        <v>2567</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F103" t="s">
+        <v>347</v>
+      </c>
+      <c r="G103" t="s">
+        <v>375</v>
+      </c>
+      <c r="H103" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D104" t="s">
-        <v>2569</v>
+        <v>2568</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F104" t="s">
+        <v>347</v>
+      </c>
+      <c r="G104" t="s">
+        <v>375</v>
+      </c>
+      <c r="H104" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F105" t="s">
+        <v>347</v>
+      </c>
+      <c r="G105" t="s">
+        <v>375</v>
+      </c>
+      <c r="H105" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>2571</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>2572</v>
+      <c r="E106" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F106" t="s">
+        <v>347</v>
+      </c>
+      <c r="G106" t="s">
+        <v>375</v>
+      </c>
+      <c r="H106" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F107" t="s">
+        <v>347</v>
+      </c>
+      <c r="G107" t="s">
+        <v>375</v>
+      </c>
+      <c r="H107" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -13660,7 +13729,7 @@
         <v>1253</v>
       </c>
       <c r="E108" t="s">
-        <v>1447</v>
+        <v>2586</v>
       </c>
       <c r="F108" t="s">
         <v>347</v>
@@ -13669,7 +13738,7 @@
         <v>375</v>
       </c>
       <c r="H108" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I108" t="s">
         <v>1606</v>
@@ -13701,69 +13770,189 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>2574</v>
+        <v>2573</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F109" t="s">
+        <v>347</v>
+      </c>
+      <c r="G109" t="s">
+        <v>375</v>
+      </c>
+      <c r="H109" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>2575</v>
+        <v>2574</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F110" t="s">
+        <v>347</v>
+      </c>
+      <c r="G110" t="s">
+        <v>375</v>
+      </c>
+      <c r="H110" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>2576</v>
+        <v>2575</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F111" t="s">
+        <v>347</v>
+      </c>
+      <c r="G111" t="s">
+        <v>375</v>
+      </c>
+      <c r="H111" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>2577</v>
+        <v>2576</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F112" t="s">
+        <v>347</v>
+      </c>
+      <c r="G112" t="s">
+        <v>375</v>
+      </c>
+      <c r="H112" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>2578</v>
+        <v>2577</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F113" t="s">
+        <v>347</v>
+      </c>
+      <c r="G113" t="s">
+        <v>375</v>
+      </c>
+      <c r="H113" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>2563</v>
+        <v>2562</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F114" t="s">
+        <v>347</v>
+      </c>
+      <c r="G114" t="s">
+        <v>375</v>
+      </c>
+      <c r="H114" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>2579</v>
+        <v>2578</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F115" t="s">
+        <v>347</v>
+      </c>
+      <c r="G115" t="s">
+        <v>375</v>
+      </c>
+      <c r="H115" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>2580</v>
+        <v>2579</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F116" t="s">
+        <v>347</v>
+      </c>
+      <c r="G116" t="s">
+        <v>375</v>
+      </c>
+      <c r="H116" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D117" t="s">
-        <v>2584</v>
+        <v>2583</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F117" t="s">
+        <v>347</v>
+      </c>
+      <c r="G117" t="s">
+        <v>375</v>
+      </c>
+      <c r="H117" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D118" t="s">
         <v>2582</v>
       </c>
-      <c r="D118" t="s">
-        <v>2583</v>
+      <c r="E118" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F118" t="s">
+        <v>347</v>
+      </c>
+      <c r="G118" t="s">
+        <v>375</v>
+      </c>
+      <c r="H118" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C119">
         <v>30</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="E119">
         <v>7507105970</v>
@@ -13780,6 +13969,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D102" r:id="rId1" xr:uid="{A3F5D287-7DA5-4CB9-9032-18A3645113DD}"/>
     <hyperlink ref="D105" r:id="rId2" xr:uid="{ABC29F13-852F-43B8-8614-811F965028A3}"/>

--- a/korea_week_split(1).xlsx
+++ b/korea_week_split(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\OneDrive\Desktop\kkyo\korea week QR code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3012D3EE-CA67-4F11-94EA-B9C12E0C0551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491E577-78CB-4E8C-9E78-804DA364EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5697" uniqueCount="1961">
   <si>
     <t>bot-field</t>
   </si>
@@ -5911,6 +5911,9 @@
   </si>
   <si>
     <t>lewin hemn</t>
+  </si>
+  <si>
+    <t>day 2</t>
   </si>
 </sst>
 </file>
@@ -6315,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
+    <sheetView tabSelected="1" topLeftCell="D251" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H259" sqref="H259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16699,7 +16702,7 @@
       <c r="C214">
         <v>31</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="E214" t="s">
@@ -18803,6 +18806,9 @@
       </c>
       <c r="D257" s="2" t="s">
         <v>1958</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1960</v>
       </c>
     </row>
     <row r="258" spans="2:19" x14ac:dyDescent="0.3">
@@ -19100,6 +19106,7 @@
     <hyperlink ref="D256" r:id="rId242" xr:uid="{B270E7C0-9B85-4D1A-923E-F9874CBDA7F4}"/>
     <hyperlink ref="D257" r:id="rId243" xr:uid="{2568DFAA-A6A5-4D3B-ABA7-6995C62A963C}"/>
     <hyperlink ref="R258" r:id="rId244" xr:uid="{4D1181E9-AFA5-4AE8-BC15-5D9D351ED170}"/>
+    <hyperlink ref="D214" r:id="rId245" xr:uid="{3D91DEF6-99F1-4B79-8C78-2736056EC8E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
